--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nuzul Kuliah\PGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D7A040-C9FB-4823-866A-F09D230C7171}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E9A64-2086-40D8-BDD7-CEBAEBDD6009}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A5B76E5E-2AF9-46A9-98B3-B456C89DD601}"/>
+    <workbookView xWindow="12795" yWindow="30" windowWidth="8745" windowHeight="12780" xr2:uid="{A5B76E5E-2AF9-46A9-98B3-B456C89DD601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>PT DEVERINDO INDOGRAHA RAYA (somerset)</t>
   </si>
@@ -81,9 +81,6 @@
     <t>cafe=1</t>
   </si>
   <si>
-    <t>GRAND SUNGKONO LAGOON (jl sungkono sby)-5ft</t>
-  </si>
-  <si>
     <t>PT GARSINDO ANUGERAH SEJAHTERA (gresik)-5ft)</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>CV KELANA JAYA (ambil sendiri)</t>
-  </si>
-  <si>
     <t>PENGOLAHAN MAKANAN=1</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>NATURAL GAS VEHICLE=1</t>
   </si>
   <si>
-    <t>MRU Gresik</t>
-  </si>
-  <si>
     <t>harus dari spbg</t>
   </si>
   <si>
@@ -292,6 +283,9 @@
   </si>
   <si>
     <t>sama dg rajawali penta(3)</t>
+  </si>
+  <si>
+    <t>fOB cash (ambil sendiri)</t>
   </si>
 </sst>
 </file>
@@ -655,7 +649,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,31 +667,31 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -966,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3">
         <v>6645.62</v>
@@ -998,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>6300</v>
@@ -1007,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
         <v>30</v>
@@ -1030,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>7769.9</v>
@@ -1062,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>5866.4</v>
@@ -1071,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>22</v>
@@ -1094,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>8500</v>
@@ -1103,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -1126,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>8500</v>
@@ -1158,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>6700</v>
@@ -1167,16 +1161,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
@@ -1190,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>5115.7889999999998</v>
@@ -1199,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="3">
         <v>46.4</v>
@@ -1222,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>5115.7889999999998</v>
@@ -1231,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3">
         <v>29</v>
@@ -1254,7 +1248,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>5115.7889999999998</v>
@@ -1263,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3">
         <v>30</v>
@@ -1286,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>5300</v>
@@ -1295,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3">
         <v>41</v>
@@ -1318,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3">
         <v>4725</v>
@@ -1327,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="3">
         <v>25</v>
@@ -1350,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
         <v>5250</v>
@@ -1359,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="3">
         <v>93</v>
@@ -1382,7 +1376,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>4725</v>
@@ -1391,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>7010.18</v>
@@ -1423,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3">
         <v>80</v>
@@ -1446,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
         <v>7261.08</v>
@@ -1455,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" s="3">
         <v>43</v>
@@ -1478,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3">
         <v>7261.08</v>
@@ -1487,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" s="3">
         <v>45</v>
@@ -1510,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3">
         <v>5463.1</v>
@@ -1519,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3">
         <v>44</v>
@@ -1542,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3">
         <v>7300</v>
@@ -1551,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" s="3">
         <v>47</v>
@@ -1574,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3">
         <v>11250.45</v>
@@ -1583,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="3">
         <v>133</v>
@@ -1606,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3">
         <v>6130</v>
@@ -1615,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3">
         <v>52</v>
@@ -1638,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3">
         <v>6752</v>
@@ -1647,10 +1641,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G31" s="3">
         <v>11.3</v>
@@ -1670,7 +1664,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3">
         <v>7279</v>
@@ -1679,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F32" s="3">
         <v>60</v>
@@ -1702,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3">
         <v>8500</v>
@@ -1711,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3">
         <v>50</v>
@@ -1730,7 +1724,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3">
         <v>6385</v>
@@ -1739,10 +1733,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1758,7 +1752,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1767,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" s="3">
         <v>351</v>
@@ -1788,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1797,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3">
         <v>351</v>
@@ -1818,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1827,15 +1821,15 @@
         <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1848,7 +1842,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3">
         <v>8687.75</v>
@@ -1857,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" s="3">
         <v>319</v>
@@ -1865,7 +1859,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1878,7 +1872,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3">
         <v>9000</v>
@@ -1887,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F39" s="3">
         <v>351</v>
@@ -1906,14 +1900,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F40" s="3">
         <v>40</v>
@@ -1927,14 +1921,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3">
         <v>30</v>
